--- a/SALT/KCl_UCl3.xlsx
+++ b/SALT/KCl_UCl3.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4513DC2-342A-D84D-95E3-598D5906D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E55EF9-1486-A948-8686-C290E8447B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{820A415F-7FC5-F941-A59B-56DA610488BE}"/>
+    <workbookView xWindow="11200" yWindow="3460" windowWidth="28040" windowHeight="17440" xr2:uid="{820A415F-7FC5-F941-A59B-56DA610488BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98CE10C-1D7C-9444-879C-E553076D0E71}">
-  <dimension ref="B4:J13"/>
+  <dimension ref="B4:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>C7*2+D7*4</f>
+        <f t="shared" ref="E7:E16" si="0">C7*2+D7*4</f>
         <v>100</v>
       </c>
       <c r="G7">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <f>C8*2+D8*4</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="G8">
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <f>C9*2+D9*4</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="G9">
@@ -530,130 +530,220 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I13" si="0">G9*2+H9*4</f>
+        <f t="shared" ref="I9:I16" si="1">G9*2+H9*4</f>
         <v>96</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J13" si="1">H9/SUM(G9:H9)</f>
+        <f t="shared" ref="J9:J16" si="2">H9/SUM(G9:H9)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <f>C10/(1-B10)-C10</f>
-        <v>12.384615384615387</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <f>C10*2+D10*4</f>
-        <v>95.538461538461547</v>
+        <f t="shared" ref="E10" si="3">C10*2+D10*4</f>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10" si="2">G10*2+H10*4</f>
-        <v>94</v>
+        <f t="shared" ref="I10" si="4">G10*2+H10*4</f>
+        <v>100</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="3">H10/SUM(G10:H10)</f>
-        <v>0.34285714285714286</v>
+        <f t="shared" ref="J10" si="5">H10/SUM(G10:H10)</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <f>C11/(1-B11)-C11</f>
-        <v>17.111111111111114</v>
+        <v>12.384615384615387</v>
       </c>
       <c r="E11">
-        <f>C11*2+D11*4</f>
-        <v>96.444444444444457</v>
+        <f t="shared" si="0"/>
+        <v>95.538461538461547</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <f>G11*2+H11*4</f>
-        <v>100</v>
+        <f t="shared" ref="I11:I12" si="6">G11*2+H11*4</f>
+        <v>94</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <f t="shared" ref="J11:J12" si="7">H11/SUM(G11:H11)</f>
+        <v>0.34285714285714286</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <f>C12/(1-B12)-C12</f>
-        <v>24</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="E12">
-        <f>C12*2+D12*4</f>
-        <v>112</v>
+        <f t="shared" si="0"/>
+        <v>94.909090909090907</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <f>G12*2+H12*4</f>
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="7"/>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>C13/(1-B13)-C13</f>
+        <v>17.111111111111114</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>96.444444444444457</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <f>G13*2+H13*4</f>
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>C14/(1-B14)-C14</f>
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <f>G14*2+H14*4</f>
+        <v>112</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.85</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>C15/(1-B15)-C15</f>
+        <v>22.666666666666664</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>98.666666666666657</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <f>G15*2+H15*4</f>
+        <v>96</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>24</v>
       </c>
-      <c r="E13">
-        <f>C13*2+D13*4</f>
-        <v>96</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>24</v>
-      </c>
-      <c r="I13">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="J13">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
